--- a/predict_skema1_part2.xlsx
+++ b/predict_skema1_part2.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.863980005978007</v>
+        <v>1.868993521899907</v>
       </c>
       <c r="C2" t="n">
-        <v>1.672037218083876</v>
+        <v>1.622791829753273</v>
       </c>
       <c r="D2" t="n">
-        <v>3.612386856251071</v>
+        <v>3.61871169960682</v>
       </c>
       <c r="E2" t="n">
-        <v>3.2928044095528</v>
+        <v>3.230567542359533</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.719721550525605</v>
+        <v>1.696515009852148</v>
       </c>
       <c r="C3" t="n">
-        <v>1.628335922300352</v>
+        <v>1.658893945129544</v>
       </c>
       <c r="D3" t="n">
-        <v>3.704955637785265</v>
+        <v>3.212021526041998</v>
       </c>
       <c r="E3" t="n">
-        <v>3.671184462785077</v>
+        <v>3.382747951040899</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.024076217075243</v>
+        <v>2.045823477752514</v>
       </c>
       <c r="C4" t="n">
-        <v>1.641400049727737</v>
+        <v>1.557235453415437</v>
       </c>
       <c r="D4" t="n">
-        <v>3.551480543600231</v>
+        <v>3.74463061845659</v>
       </c>
       <c r="E4" t="n">
-        <v>2.965847682096799</v>
+        <v>3.050535115628968</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.115125065389277</v>
+        <v>2.039711932385157</v>
       </c>
       <c r="C5" t="n">
-        <v>1.615068086456309</v>
+        <v>1.755022604326692</v>
       </c>
       <c r="D5" t="n">
-        <v>3.895559737432758</v>
+        <v>4.197457335804271</v>
       </c>
       <c r="E5" t="n">
-        <v>3.431703483577074</v>
+        <v>3.089266276403542</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.757300166312139</v>
+        <v>1.990405081286365</v>
       </c>
       <c r="C6" t="n">
-        <v>1.644946265295267</v>
+        <v>1.43601610435942</v>
       </c>
       <c r="D6" t="n">
-        <v>3.060306361571272</v>
+        <v>3.478376307169218</v>
       </c>
       <c r="E6" t="n">
-        <v>2.820750738853814</v>
+        <v>2.759206777070902</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.879817761622841</v>
+        <v>1.873344965704756</v>
       </c>
       <c r="C7" t="n">
-        <v>1.597698753944213</v>
+        <v>1.593337568791708</v>
       </c>
       <c r="D7" t="n">
-        <v>3.584280641142034</v>
+        <v>3.85936424015709</v>
       </c>
       <c r="E7" t="n">
-        <v>3.207806209737549</v>
+        <v>3.322711056831915</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.970866609936875</v>
+        <v>1.867233420337399</v>
       </c>
       <c r="C8" t="n">
-        <v>1.571366790672785</v>
+        <v>1.791124719702963</v>
       </c>
       <c r="D8" t="n">
-        <v>3.597226810783174</v>
+        <v>3.789262431253495</v>
       </c>
       <c r="E8" t="n">
-        <v>3.312033271041383</v>
+        <v>3.528581786311117</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.613041710859737</v>
+        <v>1.817926569238607</v>
       </c>
       <c r="C9" t="n">
-        <v>1.601244969511742</v>
+        <v>1.472118219735691</v>
       </c>
       <c r="D9" t="n">
-        <v>3.558312903372089</v>
+        <v>3.512629653503726</v>
       </c>
       <c r="E9" t="n">
-        <v>3.150692649169256</v>
+        <v>3.357983581581853</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.275221276486513</v>
+        <v>2.216541888237765</v>
       </c>
       <c r="C10" t="n">
-        <v>1.58443091810017</v>
+        <v>1.689466227988856</v>
       </c>
       <c r="D10" t="n">
-        <v>3.576861570257648</v>
+        <v>3.973015916496917</v>
       </c>
       <c r="E10" t="n">
-        <v>3.295716518178924</v>
+        <v>3.18063943236015</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.917396377409375</v>
+        <v>2.167235037138973</v>
       </c>
       <c r="C11" t="n">
-        <v>1.614309096939127</v>
+        <v>1.370459728021584</v>
       </c>
       <c r="D11" t="n">
-        <v>3.02122984795382</v>
+        <v>3.769158913771167</v>
       </c>
       <c r="E11" t="n">
-        <v>3.404064526052368</v>
+        <v>2.897641627032856</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.008445225723408</v>
+        <v>2.161123491771615</v>
       </c>
       <c r="C12" t="n">
-        <v>1.587977133667699</v>
+        <v>1.568246878932839</v>
       </c>
       <c r="D12" t="n">
-        <v>3.765185255237313</v>
+        <v>3.966896042954584</v>
       </c>
       <c r="E12" t="n">
-        <v>2.91948880307506</v>
+        <v>3.316115368550531</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.130962821034111</v>
+        <v>2.044063376190007</v>
       </c>
       <c r="C13" t="n">
-        <v>1.540729622316645</v>
+        <v>1.725568343365127</v>
       </c>
       <c r="D13" t="n">
-        <v>3.284498682881608</v>
+        <v>3.969487940145672</v>
       </c>
       <c r="E13" t="n">
-        <v>3.07134582144651</v>
+        <v>3.300414743896696</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.773137921956973</v>
+        <v>1.994756525091215</v>
       </c>
       <c r="C14" t="n">
-        <v>1.570607801155603</v>
+        <v>1.406561843397855</v>
       </c>
       <c r="D14" t="n">
-        <v>3.295402265653323</v>
+        <v>3.482738623220373</v>
       </c>
       <c r="E14" t="n">
-        <v>2.824223373486114</v>
+        <v>3.417306542916194</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.864186770271007</v>
+        <v>1.988644979723858</v>
       </c>
       <c r="C15" t="n">
-        <v>1.544275837884175</v>
+        <v>1.60434899430911</v>
       </c>
       <c r="D15" t="n">
-        <v>3.696979587700309</v>
+        <v>4.154845346638128</v>
       </c>
       <c r="E15" t="n">
-        <v>3.603509544374432</v>
+        <v>3.563937125370445</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.168541436820645</v>
+        <v>2.337953447624224</v>
       </c>
       <c r="C16" t="n">
-        <v>1.55733996531156</v>
+        <v>1.502690502595003</v>
       </c>
       <c r="D16" t="n">
-        <v>3.635628959045367</v>
+        <v>3.82647253806657</v>
       </c>
       <c r="E16" t="n">
-        <v>3.384467481199527</v>
+        <v>2.740381244781574</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.024282981368243</v>
+        <v>2.165474935576466</v>
       </c>
       <c r="C17" t="n">
-        <v>1.513638669528035</v>
+        <v>1.538792617971274</v>
       </c>
       <c r="D17" t="n">
-        <v>3.396118090306865</v>
+        <v>4.125535937756409</v>
       </c>
       <c r="E17" t="n">
-        <v>3.096592573960253</v>
+        <v>3.149387701792993</v>
       </c>
     </row>
   </sheetData>
